--- a/inst/extdata/testDatawarn2.xlsx
+++ b/inst/extdata/testDatawarn2.xlsx
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,18 +169,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFFFC000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -437,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,24 +439,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,9 +454,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,19 +481,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,7 +875,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -925,59 +889,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2015</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -986,10 +950,10 @@
       <c r="C3" s="4">
         <v>2016</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -998,12 +962,12 @@
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1012,22 +976,22 @@
       <c r="C4" s="4">
         <v>2016</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>109</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1036,22 +1000,22 @@
       <c r="C5" s="4">
         <v>2016</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1060,7 +1024,7 @@
       <c r="C6" s="4">
         <v>2015</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1072,12 +1036,12 @@
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1086,10 +1050,10 @@
       <c r="C7" s="4">
         <v>2017</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1098,12 +1062,12 @@
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1112,24 +1076,24 @@
       <c r="C8" s="4">
         <v>2017</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>109</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1138,7 +1102,7 @@
       <c r="C9" s="2">
         <v>2017</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1148,12 +1112,12 @@
       <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1168,40 +1132,40 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>2015</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>149</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="11" t="s">
         <v>29</v>
       </c>
     </row>
